--- a/medicine/Psychotrope/Drunk_History/Drunk_History.xlsx
+++ b/medicine/Psychotrope/Drunk_History/Drunk_History.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drunk History est une série télévisée humoristique américaine en 70 épisodes de 22 minutes créée par Derek Waters et Jeremy Konner, diffusée entre le 9 juillet 2013[1] et le 6 août 2019 sur la chaîne Comedy Central et sur The Comedy Network[2] au Canada.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drunk History est une série télévisée humoristique américaine en 70 épisodes de 22 minutes créée par Derek Waters et Jeremy Konner, diffusée entre le 9 juillet 2013 et le 6 août 2019 sur la chaîne Comedy Central et sur The Comedy Network au Canada.
 Cette série est inédite dans tous les pays francophones.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La série montre des stars qui participent à des reconstitutions historiques, dont les narrateurs sont complètement ivres. Il y a une version anglaise, australienne et récemment mexicaine de cette série.
 Avec Derek Waters (en) cocréateur de la série qui joue également son propre rôle, ainsi que Sarah Burns.
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Derek Waters (en)
@@ -589,7 +605,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Première saison (2013)
+          <t>Première saison (2013)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Washington, DC
 Chicago
 Atlanta
@@ -598,8 +620,43 @@
 Detroit
 Nashville
 The Wild West
-Deuxième saison (2014)
-Le 30 octobre 2013, la série a été renouvelée pour une deuxième saison[3] de dix épisodes diffusée depuis le 1er juillet 2014[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Drunk_History</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Drunk_History</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2014)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 30 octobre 2013, la série a été renouvelée pour une deuxième saison de dix épisodes diffusée depuis le 1er juillet 2014.
 Montgomery
 New York City
 American Music
@@ -610,8 +667,43 @@
 Philadelphia
 Sport Heroes
 First Ladies
-Troisième saison (2015)
-Le 25 juillet 2014, la série a été renouvelée pour une troisième saison[5], diffusée depuis le 1er septembre 2015[6].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Drunk_History</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Drunk_History</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Troisième saison (2015)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 25 juillet 2014, la série a été renouvelée pour une troisième saison, diffusée depuis le 1er septembre 2015.
 New Jersey
 Miami
 New Orleans
@@ -625,8 +717,43 @@
 Inventors
 Las Vegas
 Space
-Quatrième saison (2016)
-Le 29 mars 2016, la série a été renouvelée pour une quatrième saison[7], diffusée depuis le 27 septembre 2016[8].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Drunk_History</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Drunk_History</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Quatrième saison (2016)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 29 mars 2016, la série a été renouvelée pour une quatrième saison, diffusée depuis le 27 septembre 2016.
 Great Escapes
 Legends
 Bar Fights
@@ -637,8 +764,43 @@
 Food
 Hamilton
 Shit Shows
-Cinquième saison (2018)
-En janvier 2017, la série est renouvelée pour une cinquième saison[9] diffusée à partir du 23 janvier 2018[10].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Drunk_History</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Drunk_History</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cinquième saison (2018)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En janvier 2017, la série est renouvelée pour une cinquième saison diffusée à partir du 23 janvier 2018.
 Heroines
 Dangerous Minds
 Game Changers
@@ -652,8 +814,43 @@
 The Middle Ages
 Death
 Halloween
-Sixième saison (2019)
-En février 2018, la série est renouvelée pour une sixième saison[11], diffusée depuis le 15 janvier 2019[12].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Drunk_History</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Drunk_History</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sixième saison (2019)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En février 2018, la série est renouvelée pour une sixième saison, diffusée depuis le 15 janvier 2019.
 Are You Afraid of the Drunk?
 National Parks
 Baseball
@@ -674,62 +871,66 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Drunk_History</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Drunk_History</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Drunk_History</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Drunk_History</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Annulation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 26 août 2019, elle est renouvelée pour une septième saison[13]. Quelques épisodes étaient en pré-production lors du début de la pandémie de Covid-19 en mars 2020. Comedy Central décide le 19 août 2020 d'annuler la série[14].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 26 août 2019, elle est renouvelée pour une septième saison. Quelques épisodes étaient en pré-production lors du début de la pandémie de Covid-19 en mars 2020. Comedy Central décide le 19 août 2020 d'annuler la série.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Drunk_History</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Drunk_History</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Drunk_History</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Drunk_History</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Primetime Emmy Awards : 2015 (gagnant), plusieurs nominations de 2016 à 2020.</t>
         </is>
